--- a/outputs/ph.xlsx
+++ b/outputs/ph.xlsx
@@ -45,26 +45,10 @@
     <t>Shipper:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Invoice No. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
+    <t>Invoice No. ：</t>
+  </si>
+  <si>
+    <t>CXCI2025012201</t>
   </si>
   <si>
     <t>Date:</t>
@@ -80,9 +64,6 @@
   </si>
   <si>
     <t>ADD:UNIT 802,8/F,CHINA INSURANCE GROUP BUILDING,141 DES VOEUX ROAD CENTRAL HONG KONG</t>
-  </si>
-  <si>
-    <t>Contact Person: Mr Kamal Baldi</t>
   </si>
   <si>
     <t>Ship to :</t>
@@ -101,7 +82,7 @@
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +322,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1384,8 +1358,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1457,9 +1431,8 @@
       <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="H4" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="J4" s="28"/>
     </row>
@@ -1482,11 +1455,10 @@
       <c r="D6" s="16"/>
       <c r="E6" s="13"/>
       <c r="G6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>6</v>
+      </c>
+      <c r="H6" s="18">
+        <v>45679</v>
       </c>
       <c r="J6" s="28"/>
     </row>
@@ -1495,20 +1467,19 @@
       <c r="B7" s="11"/>
       <c r="E7" s="11"/>
       <c r="G7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="18" t="e">
-        <f>H6</f>
-        <v>#REF!</v>
+        <v>7</v>
+      </c>
+      <c r="H7" s="18">
+        <v>45679</v>
       </c>
       <c r="J7" s="28"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="29" customHeight="1" spans="1:10">
       <c r="A8" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -1520,7 +1491,7 @@
     <row r="9" s="2" customFormat="1" ht="13" spans="1:10">
       <c r="A9" s="22"/>
       <c r="B9" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1531,9 +1502,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="13" spans="1:10">
       <c r="A10" s="22"/>
-      <c r="B10" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="13"/>
@@ -1555,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -1567,7 +1536,7 @@
     <row r="13" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:10">
       <c r="A13" s="22"/>
       <c r="B13" s="24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
